--- a/forest/data/final_data_STATS.xlsx
+++ b/forest/data/final_data_STATS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14075" uniqueCount="3051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14095" uniqueCount="3052">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -1236,7 +1236,7 @@
     <t xml:space="preserve">Dehgam; Gandhinagar; Gujarat</t>
   </si>
   <si>
-    <t xml:space="preserve">Latitude: 23°10_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0000_6.66_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0000_N Longitude: 72°52_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0000_31.20_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0000_E</t>
+    <t xml:space="preserve">Latitude: 23°10_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0000_6.66_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0000_N Longitude: 72°52_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0000_31.20_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x005F_x0000_E</t>
   </si>
   <si>
     <t xml:space="preserve">02 May; 2019</t>
@@ -11219,6 +11219,9 @@
   <si>
     <t xml:space="preserve">Industrial Projects – 3</t>
   </si>
+  <si>
+    <t xml:space="preserve">Data Unavailable</t>
+  </si>
 </sst>
 </file>
 
@@ -11227,7 +11230,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -11256,6 +11259,21 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Roboto Slab"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Roboto"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -11364,11 +11382,2479 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF7E0021"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF83CAFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FFAECF00"/>
+      <rgbColor rgb="FFFFD320"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF420E"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF579D1C"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF314004"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF4B1F6F"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.325187604494732"/>
+          <c:y val="0.0198061883713023"/>
+          <c:w val="0.643765309693223"/>
+          <c:h val="0.904794287657259"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Coal Mining</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Industrial Projects – 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Industrial Projects – 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Industrial Projects – 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Infrastructure and Miscellaneous Projects + CRZ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>New Construction Projects and Industrial Estates</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Non-Coal Mining</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>River Valley and Hydroelectric Projects</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Thermal Projects</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="22021545"/>
+        <c:axId val="46185135"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="22021545"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Roboto Slab"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="46185135"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46185135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="22021545"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.326249862248834"/>
+          <c:y val="0.019672131147541"/>
+          <c:w val="0.553245417477868"/>
+          <c:h val="0.887494145199063"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$13:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Data Unavailable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$13:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>557</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="57476501"/>
+        <c:axId val="44430043"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="57476501"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Roboto"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44430043"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="44430043"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="57476501"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.191852026867384"/>
+          <c:y val="0.0418118466898955"/>
+          <c:w val="0.789685084551254"/>
+          <c:h val="0.865505226480836"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coal Mining</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$78:$E$84</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Data Unavailable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$78:$F$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Industrial Projects – 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$78:$E$84</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Data Unavailable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$78:$G$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Industrial Projects – 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$78:$E$84</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Data Unavailable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$78:$H$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Industrial Projects – 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$78:$E$84</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Data Unavailable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$78:$I$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Infrastructure and Miscellaneous Projects + CRZ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$78:$E$84</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Data Unavailable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$J$78:$J$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$K$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>New Construction Projects and Industrial Estates</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$78:$E$84</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Data Unavailable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$78:$K$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$L$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Non-Coal Mining</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="314004"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$78:$E$84</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Data Unavailable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$L$78:$L$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$M$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>River Valley and Hydroelectric Projects</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="aecf00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$78:$E$84</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Data Unavailable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$M$78:$M$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$N$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thermal Projects</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4b1f6f"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$78:$E$84</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Data Unavailable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$N$78:$N$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="39994105"/>
+        <c:axId val="64501821"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="39994105"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64501821"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="64501821"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="39994105"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.00442164242076484"/>
+          <c:y val="0.0563763066202091"/>
+          <c:w val="0.174502987140109"/>
+          <c:h val="0.825156794425087"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11656603552377"/>
+          <c:y val="0.0192772577945826"/>
+          <c:w val="0.859663520722199"/>
+          <c:h val="0.736006942292196"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$29:$E$37</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Coal Mining</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Industrial Projects – 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Industrial Projects – 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Industrial Projects – 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Infrastructure and Miscellaneous Projects + CRZ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>New Construction Projects and Industrial Estates</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Non-Coal Mining</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>River Valley and Hydroelectric Projects</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Thermal Projects</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$29:$F$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$29:$E$37</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Coal Mining</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Industrial Projects – 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Industrial Projects – 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Industrial Projects – 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Infrastructure and Miscellaneous Projects + CRZ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>New Construction Projects and Industrial Estates</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Non-Coal Mining</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>River Valley and Hydroelectric Projects</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Thermal Projects</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$29:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$29:$E$37</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Coal Mining</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Industrial Projects – 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Industrial Projects – 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Industrial Projects – 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Infrastructure and Miscellaneous Projects + CRZ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>New Construction Projects and Industrial Estates</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Non-Coal Mining</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>River Valley and Hydroelectric Projects</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Thermal Projects</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$29:$H$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$29:$E$37</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Coal Mining</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Industrial Projects – 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Industrial Projects – 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Industrial Projects – 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Infrastructure and Miscellaneous Projects + CRZ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>New Construction Projects and Industrial Estates</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Non-Coal Mining</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>River Valley and Hydroelectric Projects</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Thermal Projects</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$29:$I$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$29:$E$37</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Coal Mining</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Industrial Projects – 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Industrial Projects – 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Industrial Projects – 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Infrastructure and Miscellaneous Projects + CRZ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>New Construction Projects and Industrial Estates</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Non-Coal Mining</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>River Valley and Hydroelectric Projects</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Thermal Projects</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$J$29:$J$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$K$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$29:$E$37</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Coal Mining</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Industrial Projects – 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Industrial Projects – 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Industrial Projects – 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Infrastructure and Miscellaneous Projects + CRZ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>New Construction Projects and Industrial Estates</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Non-Coal Mining</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>River Valley and Hydroelectric Projects</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Thermal Projects</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$29:$K$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$L$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Data Unavailable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="314004"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$29:$E$37</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Coal Mining</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Industrial Projects – 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Industrial Projects – 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Industrial Projects – 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Infrastructure and Miscellaneous Projects + CRZ</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>New Construction Projects and Industrial Estates</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Non-Coal Mining</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>River Valley and Hydroelectric Projects</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Thermal Projects</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$L$29:$L$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="91795089"/>
+        <c:axId val="12173476"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="91795089"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-20100000"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Roboto"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="12173476"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="12173476"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="91795089"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0120464271059265"/>
+          <c:y val="0.211677927229901"/>
+          <c:w val="0.0911835394806261"/>
+          <c:h val="0.43302547573297"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>308880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>354600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>135720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="12814560" y="165240"/>
+        <a:ext cx="9839880" cy="3787920"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>515880</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>164160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>522000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>151560</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="13021560" y="4144320"/>
+        <a:ext cx="9800280" cy="3843000"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>82440</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>14760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>341640</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>123840</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="13200120" y="8201160"/>
+        <a:ext cx="10665720" cy="5166000"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>336960</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>93960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>376560</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>118440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="13454640" y="13863240"/>
+        <a:ext cx="12282480" cy="5807880"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11384,7 +13870,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.49"/>
@@ -70581,101 +73067,98 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C126"/>
+  <dimension ref="A1:N127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B105" activeCellId="0" sqref="B105"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K109" activeCellId="0" sqref="K109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="56.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="56.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="5" t="n">
-        <v>82</v>
-      </c>
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>3048</v>
+        <v>142</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>321</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>615</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>1</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>3050</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>464</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>316</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>275</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>18</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B10" s="5" t="n">
         <v>35</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
-        <v>2004</v>
-      </c>
-      <c r="B12" s="5" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B13" s="5" t="n">
         <v>1</v>
@@ -70683,514 +73166,708 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>461</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>360</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>557</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>413</v>
+        <v>557</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="n">
         <v>2019</v>
       </c>
-      <c r="B19" s="5" t="n">
+      <c r="B20" s="5" t="n">
         <v>331</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="B20" s="5" t="n">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B21" s="5" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B23" s="5" t="n">
+      <c r="B24" s="5" t="n">
         <v>2015</v>
       </c>
-      <c r="C23" s="5" t="n">
+      <c r="C24" s="5" t="n">
         <v>28</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7"/>
-      <c r="B24" s="5" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C24" s="5" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7"/>
       <c r="B25" s="5" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7"/>
       <c r="B26" s="5" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7"/>
       <c r="B27" s="5" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7"/>
+      <c r="B28" s="5" t="n">
         <v>2019</v>
       </c>
-      <c r="C27" s="5" t="n">
+      <c r="C28" s="5" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="s">
+      <c r="F28" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>2015</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>2019</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7" t="s">
         <v>3048</v>
       </c>
-      <c r="B28" s="5" t="n">
+      <c r="B29" s="5" t="n">
         <v>2014</v>
       </c>
-      <c r="C28" s="5" t="n">
+      <c r="C29" s="5" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7"/>
-      <c r="B29" s="5" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C29" s="5" t="n">
-        <v>117</v>
+      <c r="E29" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7"/>
       <c r="B30" s="5" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C30" s="5" t="n">
+        <v>117</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>3048</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="H30" s="0" t="n">
         <v>65</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7"/>
       <c r="B31" s="5" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>43</v>
+        <v>65</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>3049</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>191</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7"/>
       <c r="B32" s="5" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>3050</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7"/>
       <c r="B33" s="5" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7"/>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="5" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="7"/>
+      <c r="B35" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="C34" s="5" t="n">
+      <c r="C35" s="5" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="s">
+      <c r="E35" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="7" t="s">
         <v>3049</v>
       </c>
-      <c r="B35" s="5" t="n">
+      <c r="B36" s="5" t="n">
         <v>2004</v>
       </c>
-      <c r="C35" s="5" t="n">
+      <c r="C36" s="5" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7"/>
-      <c r="B36" s="5" t="n">
-        <v>2006</v>
-      </c>
-      <c r="C36" s="5" t="n">
+      <c r="E36" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K36" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7"/>
       <c r="B37" s="5" t="n">
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>51</v>
+        <v>1</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7"/>
       <c r="B38" s="5" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>129</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7"/>
       <c r="B39" s="5" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>191</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7"/>
       <c r="B40" s="5" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>124</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7"/>
       <c r="B41" s="5" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7"/>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="5" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="7"/>
+      <c r="B43" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="C42" s="5" t="n">
+      <c r="C43" s="5" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="s">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8" t="s">
         <v>3050</v>
       </c>
-      <c r="B43" s="5" t="n">
+      <c r="B44" s="5" t="n">
         <v>2018</v>
       </c>
-      <c r="C43" s="5" t="n">
+      <c r="C44" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="s">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="5" t="n">
+      <c r="B45" s="5" t="n">
         <v>2014</v>
       </c>
-      <c r="C44" s="5" t="n">
+      <c r="C45" s="5" t="n">
         <v>3</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7"/>
-      <c r="B45" s="5" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C45" s="5" t="n">
-        <v>86</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7"/>
       <c r="B46" s="5" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>49</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7"/>
       <c r="B47" s="5" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>136</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7"/>
       <c r="B48" s="5" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>73</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7"/>
       <c r="B49" s="5" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>117</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7"/>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="5" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C50" s="5" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="7"/>
+      <c r="B51" s="5" t="s">
         <v>647</v>
-      </c>
-      <c r="C50" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B51" s="5" t="n">
-        <v>2014</v>
       </c>
       <c r="C51" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7"/>
+      <c r="A52" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="B52" s="5" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7"/>
       <c r="B53" s="5" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>3</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7"/>
       <c r="B54" s="5" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>123</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7"/>
       <c r="B55" s="5" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>106</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7"/>
       <c r="B56" s="5" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>28</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7"/>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="5" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C57" s="5" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="7"/>
+      <c r="B58" s="5" t="s">
         <v>647</v>
-      </c>
-      <c r="C57" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B58" s="5" t="n">
-        <v>2014</v>
       </c>
       <c r="C58" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7"/>
+      <c r="A59" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="B59" s="5" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7"/>
       <c r="B60" s="5" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7"/>
       <c r="B61" s="5" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>31</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7"/>
       <c r="B62" s="5" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7"/>
       <c r="B63" s="5" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C63" s="5" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="7"/>
+      <c r="B64" s="5" t="n">
         <v>2019</v>
       </c>
-      <c r="C63" s="5" t="n">
+      <c r="C64" s="5" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7" t="s">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="5" t="n">
+      <c r="B65" s="5" t="n">
         <v>2015</v>
       </c>
-      <c r="C64" s="5" t="n">
+      <c r="C65" s="5" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7"/>
-      <c r="B65" s="5" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C65" s="5" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7"/>
       <c r="B66" s="5" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7"/>
       <c r="B67" s="5" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7"/>
       <c r="B68" s="5" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C68" s="5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="7"/>
+      <c r="B69" s="5" t="n">
         <v>2019</v>
       </c>
-      <c r="C68" s="5" t="n">
+      <c r="C69" s="5" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="7" t="s">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="B69" s="5" t="n">
+      <c r="B70" s="5" t="n">
         <v>2015</v>
       </c>
-      <c r="C69" s="5" t="n">
+      <c r="C70" s="5" t="n">
         <v>11</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="7"/>
-      <c r="B70" s="5" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C70" s="5" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="7"/>
       <c r="B71" s="5" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C71" s="5" t="n">
         <v>9</v>
@@ -71199,35 +73876,33 @@
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="7"/>
       <c r="B72" s="5" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C72" s="5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="7"/>
       <c r="B73" s="5" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C73" s="5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="7"/>
+      <c r="B74" s="5" t="n">
         <v>2019</v>
       </c>
-      <c r="C73" s="5" t="n">
+      <c r="C74" s="5" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="8" t="n">
-        <v>2004</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>3049</v>
-      </c>
-      <c r="C76" s="5" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="8" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>3049</v>
@@ -71235,479 +73910,685 @@
       <c r="C77" s="5" t="n">
         <v>1</v>
       </c>
+      <c r="F77" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>3048</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>3049</v>
+      </c>
+      <c r="I77" s="0" t="s">
+        <v>3050</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L77" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M77" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N77" s="5" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="9" t="n">
-        <v>2014</v>
+      <c r="A78" s="8" t="n">
+        <v>2006</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>3048</v>
+        <v>3049</v>
       </c>
       <c r="C78" s="5" t="n">
         <v>1</v>
       </c>
+      <c r="E78" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="G78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="9"/>
+      <c r="A79" s="9" t="n">
+        <v>2014</v>
+      </c>
       <c r="B79" s="5" t="s">
-        <v>16</v>
+        <v>3048</v>
       </c>
       <c r="C79" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>2015</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="G79" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="H79" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="J79" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="K79" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="L79" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="M79" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" s="0" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="9"/>
       <c r="B80" s="5" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="C80" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G80" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="H80" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="J80" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="K80" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L80" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="M80" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" s="0" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="9"/>
       <c r="B81" s="5" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="C81" s="5" t="n">
         <v>1</v>
       </c>
+      <c r="E81" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="H81" s="0" t="n">
+        <v>191</v>
+      </c>
+      <c r="J81" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="K81" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="L81" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="M81" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N81" s="0" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="7" t="n">
+      <c r="A82" s="9"/>
+      <c r="B82" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="H82" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="I82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="K82" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="L82" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="M82" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="7" t="n">
         <v>2015</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B83" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C82" s="5" t="n">
+      <c r="C83" s="5" t="n">
         <v>28</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="7"/>
-      <c r="B83" s="5" t="s">
-        <v>3048</v>
-      </c>
-      <c r="C83" s="5" t="n">
-        <v>117</v>
+      <c r="E83" s="0" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="H83" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="J83" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="K83" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="L83" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M83" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="7"/>
       <c r="B84" s="5" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="C84" s="5" t="n">
-        <v>51</v>
+        <v>117</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>3051</v>
+      </c>
+      <c r="G84" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H84" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J84" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="7"/>
       <c r="B85" s="5" t="s">
-        <v>16</v>
+        <v>3049</v>
       </c>
       <c r="C85" s="5" t="n">
-        <v>86</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="7"/>
       <c r="B86" s="5" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="C86" s="5" t="n">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="7"/>
       <c r="B87" s="5" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="C87" s="5" t="n">
-        <v>109</v>
+        <v>54</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="7"/>
       <c r="B88" s="5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C88" s="5" t="n">
-        <v>5</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="7"/>
       <c r="B89" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="7"/>
+      <c r="B90" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="C89" s="5" t="n">
+      <c r="C90" s="5" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="7" t="n">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="7" t="n">
         <v>2016</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B91" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C90" s="5" t="n">
+      <c r="C91" s="5" t="n">
         <v>10</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="7"/>
-      <c r="B91" s="5" t="s">
-        <v>3048</v>
-      </c>
-      <c r="C91" s="5" t="n">
-        <v>65</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="7"/>
       <c r="B92" s="5" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="C92" s="5" t="n">
-        <v>129</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="7"/>
       <c r="B93" s="5" t="s">
-        <v>16</v>
+        <v>3049</v>
       </c>
       <c r="C93" s="5" t="n">
-        <v>49</v>
+        <v>129</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="7"/>
       <c r="B94" s="5" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="C94" s="5" t="n">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="7"/>
       <c r="B95" s="5" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="C95" s="5" t="n">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="7"/>
       <c r="B96" s="5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C96" s="5" t="n">
-        <v>2</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="7"/>
       <c r="B97" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="7"/>
+      <c r="B98" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="C97" s="5" t="n">
+      <c r="C98" s="5" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="7" t="n">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="7" t="n">
         <v>2017</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B99" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C98" s="5" t="n">
+      <c r="C99" s="5" t="n">
         <v>18</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="7"/>
-      <c r="B99" s="5" t="s">
-        <v>3048</v>
-      </c>
-      <c r="C99" s="5" t="n">
-        <v>43</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="7"/>
       <c r="B100" s="5" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="C100" s="5" t="n">
-        <v>191</v>
+        <v>43</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="7"/>
       <c r="B101" s="5" t="s">
-        <v>16</v>
+        <v>3049</v>
       </c>
       <c r="C101" s="5" t="n">
-        <v>136</v>
+        <v>191</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="7"/>
       <c r="B102" s="5" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="C102" s="5" t="n">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="7"/>
       <c r="B103" s="5" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="C103" s="5" t="n">
-        <v>31</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="7"/>
       <c r="B104" s="5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C104" s="5" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="7"/>
       <c r="B105" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="7"/>
+      <c r="B106" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="C105" s="5" t="n">
+      <c r="C106" s="5" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="9" t="n">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="9" t="n">
         <v>2018</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B107" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C106" s="5" t="n">
+      <c r="C107" s="5" t="n">
         <v>19</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="9"/>
-      <c r="B107" s="5" t="s">
-        <v>3048</v>
-      </c>
-      <c r="C107" s="5" t="n">
-        <v>47</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="9"/>
       <c r="B108" s="5" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="C108" s="5" t="n">
-        <v>124</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="9"/>
       <c r="B109" s="5" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="C109" s="5" t="n">
-        <v>1</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="9"/>
       <c r="B110" s="5" t="s">
-        <v>16</v>
+        <v>3050</v>
       </c>
       <c r="C110" s="5" t="n">
-        <v>73</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="9"/>
       <c r="B111" s="5" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="C111" s="5" t="n">
-        <v>106</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="9"/>
       <c r="B112" s="5" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="C112" s="5" t="n">
-        <v>33</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="9"/>
       <c r="B113" s="5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C113" s="5" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="9"/>
       <c r="B114" s="5" t="s">
-        <v>670</v>
+        <v>9</v>
       </c>
       <c r="C114" s="5" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="7" t="n">
+      <c r="A115" s="9"/>
+      <c r="B115" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="C115" s="5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="7" t="n">
         <v>2019</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B116" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C115" s="5" t="n">
+      <c r="C116" s="5" t="n">
         <v>7</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="7"/>
-      <c r="B116" s="5" t="s">
-        <v>3048</v>
-      </c>
-      <c r="C116" s="5" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="7"/>
       <c r="B117" s="5" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="C117" s="5" t="n">
-        <v>119</v>
+        <v>48</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="7"/>
       <c r="B118" s="5" t="s">
-        <v>16</v>
+        <v>3049</v>
       </c>
       <c r="C118" s="5" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="7"/>
       <c r="B119" s="5" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="C119" s="5" t="n">
-        <v>28</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="7"/>
       <c r="B120" s="5" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="C120" s="5" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="7"/>
       <c r="B121" s="5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C121" s="5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="7"/>
       <c r="B122" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="7"/>
+      <c r="B123" s="5" t="s">
         <v>670</v>
-      </c>
-      <c r="C122" s="5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="9" t="s">
-        <v>647</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>3048</v>
       </c>
       <c r="C123" s="5" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="9"/>
+      <c r="A124" s="9" t="s">
+        <v>3051</v>
+      </c>
       <c r="B124" s="5" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="C124" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="9"/>
       <c r="B125" s="5" t="s">
-        <v>16</v>
+        <v>3049</v>
       </c>
       <c r="C125" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="9"/>
       <c r="B126" s="5" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="C126" s="5" t="n">
         <v>1</v>
       </c>
     </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="9"/>
+      <c r="B127" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C127" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A34"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="A44:A50"/>
-    <mergeCell ref="A51:A57"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A82:A89"/>
-    <mergeCell ref="A90:A97"/>
-    <mergeCell ref="A98:A105"/>
-    <mergeCell ref="A106:A114"/>
-    <mergeCell ref="A115:A122"/>
-    <mergeCell ref="A123:A126"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A83:A90"/>
+    <mergeCell ref="A91:A98"/>
+    <mergeCell ref="A99:A106"/>
+    <mergeCell ref="A107:A115"/>
+    <mergeCell ref="A116:A123"/>
+    <mergeCell ref="A124:A127"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -71716,5 +74597,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>